--- a/biology/Botanique/Marzemino/Marzemino.xlsx
+++ b/biology/Botanique/Marzemino/Marzemino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le marzemino est un cépage italien de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marzemino est d'origine inconnue, mais il est diffusé depuis longtemps en Italie du nord. Il figure déjà dans des documents du XVe siècle dans la vallée de l'Adige. Le nom « marzemino » viendrait de « Marzemin », un village de la Carniole, aujourd'hui en Slovénie.
 Il est classé « cépage d'appoint »  en DOC Botticino, Breganze, Capriano del Colle, Cellatica, Colli di Conegliano, Colli di Scandiano e di Canossa, Garda, Garda Bresciano (ou Riviera del Garda Bresciano) et Trentino.
@@ -548,7 +562,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, blanc à liseré carminé.
 Jeunes feuilles duveteuses, vert jaunâtre.
@@ -580,7 +596,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive : trente-cinq jours après le chasselas.
 </t>
@@ -611,7 +629,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne à grande. La grappe est cylindro-conique et compacte. Le cépage est de bonne vigueur et de production régulière. Le marzemino est sensible à l'oïdium et au mildiou.
 </t>
@@ -642,7 +662,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marzemino est aussi connu sous les noms de barzabino, barzemin, bassamino, bergamasco, berzemina, berzemino calopico, bossamino, magnacan, marsemina, marzamino, marzemin, marzemino d'Isera, marzemino della terre ferma, marzemino gentile, marzemino nero, marzemino Padovano, merzemina, uva Tedesco, vertzamina (en Grèce)
 </t>
